--- a/files/21.Лаванда-4/2025/03/ла2025.03_счетчики.xlsx
+++ b/files/21.Лаванда-4/2025/03/ла2025.03_счетчики.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="300">
   <si>
     <t>№ П П</t>
   </si>
@@ -79,9 +79,6 @@
     <t>62Z2472696996581</t>
   </si>
   <si>
-    <t>А��ід</t>
-  </si>
-  <si>
     <t>003.00945113.ПОПОВА Я.О.</t>
   </si>
   <si>
@@ -634,7 +631,7 @@
     <t>62Z2451929709859</t>
   </si>
   <si>
-    <t>094.00945253.К��АМАРЕНКО М.М.</t>
+    <t>094.00945253.КРАМАРЕНКО М.М.</t>
   </si>
   <si>
     <t>62Z8279594179127</t>
@@ -1454,7 +1451,7 @@
         <v>25669</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>15657</v>
@@ -1489,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1536,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1583,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1630,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1677,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1724,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1771,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1818,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1865,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1912,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1959,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -2006,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -2053,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2100,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -2147,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -2194,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
         <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -2241,13 +2238,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
       </c>
       <c r="F21">
         <v>8746645</v>
@@ -2288,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -2335,10 +2332,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -2382,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -2429,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -2476,10 +2473,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -2523,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -2570,10 +2567,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
         <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -2617,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -2664,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -2711,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -2758,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -2805,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
         <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -2852,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>83</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -2899,10 +2896,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -2946,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2993,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
         <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -3040,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -3087,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
         <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -3134,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -3181,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -3228,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -3275,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -3322,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
         <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -3369,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
         <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -3416,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
         <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -3463,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
         <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -3510,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -3557,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
         <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -3604,10 +3601,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
         <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -3651,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
         <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>117</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -3698,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
         <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -3745,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
         <v>120</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -3792,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
         <v>122</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -3839,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
         <v>124</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -3886,10 +3883,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
         <v>126</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -3933,10 +3930,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
         <v>128</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -3980,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
         <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
@@ -4027,13 +4024,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>133</v>
-      </c>
-      <c r="E59" t="s">
-        <v>134</v>
       </c>
       <c r="F59">
         <v>20038989</v>
@@ -4074,10 +4071,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
         <v>135</v>
-      </c>
-      <c r="D60" t="s">
-        <v>136</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -4121,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
         <v>137</v>
-      </c>
-      <c r="D61" t="s">
-        <v>138</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -4168,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>139</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -4215,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
         <v>141</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -4262,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
         <v>143</v>
-      </c>
-      <c r="D64" t="s">
-        <v>144</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -4309,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
         <v>145</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -4356,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
         <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -4403,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
         <v>149</v>
-      </c>
-      <c r="D67" t="s">
-        <v>150</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -4450,10 +4447,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
         <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -4497,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
         <v>153</v>
-      </c>
-      <c r="D69" t="s">
-        <v>154</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
@@ -4544,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
         <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>156</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -4591,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
         <v>157</v>
-      </c>
-      <c r="D71" t="s">
-        <v>158</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -4638,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
         <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>160</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
@@ -4685,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
         <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>162</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -4732,10 +4729,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
         <v>163</v>
-      </c>
-      <c r="D74" t="s">
-        <v>164</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -4779,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
         <v>165</v>
-      </c>
-      <c r="D75" t="s">
-        <v>166</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -4826,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
         <v>167</v>
-      </c>
-      <c r="D76" t="s">
-        <v>168</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
@@ -4873,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
         <v>169</v>
-      </c>
-      <c r="D77" t="s">
-        <v>170</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -4920,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s">
         <v>171</v>
-      </c>
-      <c r="D78" t="s">
-        <v>172</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
@@ -4967,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" t="s">
         <v>173</v>
-      </c>
-      <c r="D79" t="s">
-        <v>174</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
@@ -5014,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
         <v>175</v>
-      </c>
-      <c r="D80" t="s">
-        <v>176</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -5061,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="s">
         <v>177</v>
-      </c>
-      <c r="D81" t="s">
-        <v>178</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
@@ -5108,10 +5105,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" t="s">
         <v>179</v>
-      </c>
-      <c r="D82" t="s">
-        <v>180</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
@@ -5155,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
         <v>181</v>
-      </c>
-      <c r="D83" t="s">
-        <v>182</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -5202,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" t="s">
         <v>183</v>
-      </c>
-      <c r="D84" t="s">
-        <v>184</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
@@ -5249,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" t="s">
         <v>185</v>
-      </c>
-      <c r="D85" t="s">
-        <v>186</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
@@ -5296,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" t="s">
         <v>187</v>
-      </c>
-      <c r="D86" t="s">
-        <v>188</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
@@ -5343,10 +5340,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
         <v>189</v>
-      </c>
-      <c r="D87" t="s">
-        <v>190</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
@@ -5390,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" t="s">
         <v>191</v>
-      </c>
-      <c r="D88" t="s">
-        <v>192</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
@@ -5437,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" t="s">
         <v>193</v>
-      </c>
-      <c r="D89" t="s">
-        <v>194</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
@@ -5484,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" t="s">
         <v>195</v>
-      </c>
-      <c r="D90" t="s">
-        <v>196</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -5531,10 +5528,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" t="s">
         <v>197</v>
-      </c>
-      <c r="D91" t="s">
-        <v>198</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
@@ -5578,10 +5575,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" t="s">
         <v>199</v>
-      </c>
-      <c r="D92" t="s">
-        <v>200</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
@@ -5625,10 +5622,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" t="s">
         <v>201</v>
-      </c>
-      <c r="D93" t="s">
-        <v>202</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
@@ -5672,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" t="s">
         <v>203</v>
-      </c>
-      <c r="D94" t="s">
-        <v>204</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
@@ -5719,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" t="s">
         <v>205</v>
-      </c>
-      <c r="D95" t="s">
-        <v>206</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
@@ -5766,10 +5763,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" t="s">
         <v>207</v>
-      </c>
-      <c r="D96" t="s">
-        <v>208</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
@@ -5813,10 +5810,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" t="s">
         <v>209</v>
-      </c>
-      <c r="D97" t="s">
-        <v>210</v>
       </c>
       <c r="E97" t="s">
         <v>18</v>
@@ -5860,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" t="s">
         <v>211</v>
-      </c>
-      <c r="D98" t="s">
-        <v>212</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
@@ -5907,10 +5904,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" t="s">
         <v>213</v>
-      </c>
-      <c r="D99" t="s">
-        <v>214</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
@@ -5954,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
         <v>215</v>
-      </c>
-      <c r="D100" t="s">
-        <v>216</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
@@ -6001,10 +5998,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" t="s">
         <v>217</v>
-      </c>
-      <c r="D101" t="s">
-        <v>218</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
@@ -6048,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
         <v>219</v>
-      </c>
-      <c r="D102" t="s">
-        <v>220</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
@@ -6095,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" t="s">
         <v>221</v>
-      </c>
-      <c r="D103" t="s">
-        <v>222</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
@@ -6142,10 +6139,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" t="s">
         <v>223</v>
-      </c>
-      <c r="D104" t="s">
-        <v>224</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
@@ -6189,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" t="s">
         <v>225</v>
-      </c>
-      <c r="D105" t="s">
-        <v>226</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
@@ -6236,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" t="s">
         <v>227</v>
-      </c>
-      <c r="D106" t="s">
-        <v>228</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
@@ -6283,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" t="s">
         <v>229</v>
-      </c>
-      <c r="D107" t="s">
-        <v>230</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
@@ -6330,10 +6327,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" t="s">
         <v>231</v>
-      </c>
-      <c r="D108" t="s">
-        <v>232</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
@@ -6377,10 +6374,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" t="s">
         <v>233</v>
-      </c>
-      <c r="D109" t="s">
-        <v>234</v>
       </c>
       <c r="E109" t="s">
         <v>18</v>
@@ -6424,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" t="s">
         <v>235</v>
-      </c>
-      <c r="D110" t="s">
-        <v>236</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
@@ -6471,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" t="s">
         <v>237</v>
-      </c>
-      <c r="D111" t="s">
-        <v>238</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
@@ -6518,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" t="s">
         <v>239</v>
-      </c>
-      <c r="D112" t="s">
-        <v>240</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
@@ -6565,10 +6562,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>240</v>
+      </c>
+      <c r="D113" t="s">
         <v>241</v>
-      </c>
-      <c r="D113" t="s">
-        <v>242</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
@@ -6612,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>242</v>
+      </c>
+      <c r="D114" t="s">
         <v>243</v>
-      </c>
-      <c r="D114" t="s">
-        <v>244</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
@@ -6659,10 +6656,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" t="s">
         <v>245</v>
-      </c>
-      <c r="D115" t="s">
-        <v>246</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
@@ -6706,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" t="s">
         <v>247</v>
-      </c>
-      <c r="D116" t="s">
-        <v>248</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
@@ -6753,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" t="s">
         <v>249</v>
-      </c>
-      <c r="D117" t="s">
-        <v>250</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
@@ -6800,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>250</v>
+      </c>
+      <c r="D118" t="s">
         <v>251</v>
-      </c>
-      <c r="D118" t="s">
-        <v>252</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
@@ -6847,10 +6844,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" t="s">
         <v>253</v>
-      </c>
-      <c r="D119" t="s">
-        <v>254</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
@@ -6894,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120" t="s">
         <v>255</v>
-      </c>
-      <c r="D120" t="s">
-        <v>256</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
@@ -6941,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" t="s">
         <v>257</v>
-      </c>
-      <c r="D121" t="s">
-        <v>258</v>
       </c>
       <c r="E121" t="s">
         <v>18</v>
@@ -6988,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" t="s">
         <v>259</v>
-      </c>
-      <c r="D122" t="s">
-        <v>260</v>
       </c>
       <c r="E122" t="s">
         <v>18</v>
@@ -7035,10 +7032,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" t="s">
         <v>261</v>
-      </c>
-      <c r="D123" t="s">
-        <v>262</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -7082,10 +7079,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" t="s">
         <v>263</v>
-      </c>
-      <c r="D124" t="s">
-        <v>264</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
@@ -7129,10 +7126,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" t="s">
         <v>265</v>
-      </c>
-      <c r="D125" t="s">
-        <v>266</v>
       </c>
       <c r="E125" t="s">
         <v>18</v>
@@ -7176,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" t="s">
         <v>267</v>
-      </c>
-      <c r="D126" t="s">
-        <v>268</v>
       </c>
       <c r="E126" t="s">
         <v>18</v>
@@ -7223,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" t="s">
         <v>269</v>
-      </c>
-      <c r="D127" t="s">
-        <v>270</v>
       </c>
       <c r="E127" t="s">
         <v>18</v>
@@ -7270,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" t="s">
         <v>271</v>
-      </c>
-      <c r="D128" t="s">
-        <v>272</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -7317,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" t="s">
         <v>273</v>
-      </c>
-      <c r="D129" t="s">
-        <v>274</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -7364,10 +7361,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" t="s">
         <v>275</v>
-      </c>
-      <c r="D130" t="s">
-        <v>276</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -7411,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" t="s">
         <v>277</v>
-      </c>
-      <c r="D131" t="s">
-        <v>278</v>
       </c>
       <c r="E131" t="s">
         <v>18</v>
@@ -7458,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>278</v>
+      </c>
+      <c r="D132" t="s">
         <v>279</v>
-      </c>
-      <c r="D132" t="s">
-        <v>280</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -7505,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" t="s">
         <v>281</v>
-      </c>
-      <c r="D133" t="s">
-        <v>282</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -7552,10 +7549,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" t="s">
         <v>283</v>
-      </c>
-      <c r="D134" t="s">
-        <v>284</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -7599,10 +7596,10 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" t="s">
         <v>285</v>
-      </c>
-      <c r="D135" t="s">
-        <v>286</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
@@ -7646,10 +7643,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" t="s">
         <v>287</v>
-      </c>
-      <c r="D136" t="s">
-        <v>288</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -7693,10 +7690,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" t="s">
         <v>289</v>
-      </c>
-      <c r="D137" t="s">
-        <v>290</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -7740,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
+        <v>290</v>
+      </c>
+      <c r="D138" t="s">
         <v>291</v>
-      </c>
-      <c r="D138" t="s">
-        <v>292</v>
       </c>
       <c r="E138" t="s">
         <v>18</v>
@@ -7787,10 +7784,10 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>292</v>
+      </c>
+      <c r="D139" t="s">
         <v>293</v>
-      </c>
-      <c r="D139" t="s">
-        <v>294</v>
       </c>
       <c r="E139" t="s">
         <v>18</v>
@@ -7834,13 +7831,13 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" t="s">
         <v>295</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>296</v>
-      </c>
-      <c r="E140" t="s">
-        <v>297</v>
       </c>
       <c r="F140">
         <v>8099244</v>
@@ -7881,13 +7878,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" t="s">
         <v>298</v>
       </c>
-      <c r="D141" t="s">
-        <v>299</v>
-      </c>
       <c r="E141" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F141">
         <v>8099252</v>
@@ -7925,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
